--- a/托盘情况汇总.xlsx
+++ b/托盘情况汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESS2SGH\Desktop\Sean\Personal\scj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBEA23A-3043-4F70-A39E-BD5CA9E13B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C601808E-0FBA-4665-BCD3-BD6E3A5B6B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>物料编码</t>
   </si>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我司托盘使用情况（二手）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,11 +90,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>供应商含运费普票（可配装400个发货）</t>
+  </si>
+  <si>
+    <t>暂无</t>
+  </si>
+  <si>
     <t>需配胶合盖板，尺寸不小于托盘，可大于托盘，厚度大于5mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商含运费普票（可配装400个发货）</t>
+  </si>
+  <si>
+    <t>我司托盘使用情况（二手）</t>
+  </si>
+  <si>
+    <t>苏州诺涵木业有限公司报价单</t>
   </si>
 </sst>
 </file>
@@ -170,11 +174,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -663,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -679,12 +686,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="38.25" customHeight="1">
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="2:5" ht="18.75" customHeight="1">
       <c r="B3" s="2" t="s">
@@ -697,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
@@ -717,26 +724,18 @@
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" ht="18.75" customHeight="1">
       <c r="B7" s="1" t="s">
@@ -753,21 +752,17 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" ht="18.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -775,11 +770,11 @@
     <row r="10" spans="2:5" ht="18.75" customHeight="1">
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
@@ -787,15 +782,140 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="14" spans="2:5" ht="38.25" customHeight="1">
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>28</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <v>28</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D22" s="3">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B3:E11" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
